--- a/src/Bangus_Distribution_Cleaned.xlsx
+++ b/src/Bangus_Distribution_Cleaned.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="136">
   <si>
     <t>Date Distributed</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Davao del Norte</t>
-  </si>
-  <si>
-    <t>Anonang</t>
   </si>
   <si>
     <t>Samal Island</t>
@@ -790,11 +787,11 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -811,19 +808,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>3000.0</v>
@@ -837,19 +834,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>3000.0</v>
@@ -863,16 +860,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -889,16 +886,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -915,16 +912,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -941,16 +938,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -967,16 +964,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -993,16 +990,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -1019,10 +1016,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1045,10 +1042,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -1071,16 +1068,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
@@ -1097,16 +1094,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -1123,16 +1120,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -1149,16 +1146,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -1175,16 +1172,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -1201,16 +1198,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -1227,16 +1224,16 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -1253,16 +1250,16 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -1279,16 +1276,16 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
@@ -1305,16 +1302,16 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
@@ -1331,16 +1328,16 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
@@ -1357,16 +1354,16 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>19</v>
@@ -1383,16 +1380,16 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
@@ -1409,16 +1406,16 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>19</v>
@@ -1435,16 +1432,16 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>19</v>
@@ -1461,16 +1458,16 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>19</v>
@@ -1487,16 +1484,16 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>19</v>
@@ -1513,16 +1510,16 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>19</v>
@@ -1539,16 +1536,16 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
@@ -1565,16 +1562,16 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>19</v>
@@ -1591,16 +1588,16 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>19</v>
@@ -1617,16 +1614,16 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>19</v>
@@ -1643,16 +1640,16 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
@@ -1669,16 +1666,16 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>19</v>
@@ -1695,16 +1692,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
@@ -1721,16 +1718,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>19</v>
@@ -1747,16 +1744,16 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>19</v>
@@ -1773,16 +1770,16 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>19</v>
@@ -1799,16 +1796,16 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>19</v>
@@ -1825,16 +1822,16 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>19</v>
@@ -1851,16 +1848,16 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>19</v>
@@ -1877,16 +1874,16 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>19</v>
@@ -1903,16 +1900,16 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>19</v>
@@ -1929,16 +1926,16 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>19</v>
@@ -1955,19 +1952,19 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F49" s="1">
         <v>6000.0</v>
@@ -1981,19 +1978,19 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F50" s="1">
         <v>5000.0</v>
@@ -2007,19 +2004,19 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F51" s="1">
         <v>3000.0</v>
@@ -2033,19 +2030,19 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F52" s="1">
         <v>3000.0</v>
@@ -2059,19 +2056,19 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F53" s="1">
         <v>3000.0</v>
@@ -2085,19 +2082,19 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F54" s="1">
         <v>6000.0</v>
@@ -2111,19 +2108,19 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F55" s="1">
         <v>40000.0</v>
@@ -2137,19 +2134,19 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F56" s="1">
         <v>40000.0</v>
@@ -2163,19 +2160,19 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F57" s="1">
         <v>3000.0</v>
@@ -2189,19 +2186,19 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F58" s="1">
         <v>3000.0</v>
@@ -2215,19 +2212,19 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F59" s="1">
         <v>3000.0</v>
@@ -2241,19 +2238,19 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F60" s="1">
         <v>5000.0</v>
@@ -2267,16 +2264,16 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2293,16 +2290,16 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2319,16 +2316,16 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2345,16 +2342,16 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2371,19 +2368,19 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F65" s="1">
         <v>8000.0</v>
@@ -2397,16 +2394,16 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -2423,16 +2420,16 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2452,13 +2449,13 @@
         <v>45273.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>19</v>
@@ -2478,13 +2475,13 @@
         <v>45273.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>19</v>
@@ -2504,13 +2501,13 @@
         <v>45274.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>19</v>
@@ -2530,16 +2527,16 @@
         <v>45274.0</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F71" s="1">
         <v>30000.0</v>
@@ -2556,16 +2553,16 @@
         <v>45274.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F72" s="1">
         <v>50000.0</v>
@@ -2582,16 +2579,16 @@
         <v>45274.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F73" s="1">
         <v>50000.0</v>
@@ -2608,16 +2605,16 @@
         <v>45276.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F74" s="1">
         <v>50000.0</v>
@@ -2634,13 +2631,13 @@
         <v>45277.0</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>19</v>
@@ -2660,16 +2657,16 @@
         <v>45282.0</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F76" s="1">
         <v>50000.0</v>
@@ -2686,16 +2683,16 @@
         <v>45290.0</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F77" s="1">
         <v>2000.0</v>

--- a/src/Bangus_Distribution_Cleaned.xlsx
+++ b/src/Bangus_Distribution_Cleaned.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="135">
   <si>
     <t>Date Distributed</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Joedan Capangpangan</t>
-  </si>
-  <si>
-    <t>10/03/2025</t>
   </si>
   <si>
     <t>Oscar L. Lejano</t>
@@ -430,8 +427,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -460,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -469,6 +467,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1145,11 +1149,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3">
+        <v>45202.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -1172,10 +1176,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -1198,13 +1202,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>31</v>
@@ -1223,14 +1227,14 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
+      <c r="A21" s="3">
+        <v>45202.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>31</v>
@@ -1250,13 +1254,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
@@ -1275,14 +1279,14 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -1302,13 +1306,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>43</v>
@@ -1328,13 +1332,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>43</v>
@@ -1354,13 +1358,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>43</v>
@@ -1380,13 +1384,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>43</v>
@@ -1406,13 +1410,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>43</v>
@@ -1432,13 +1436,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>43</v>
@@ -1458,13 +1462,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>43</v>
@@ -1484,13 +1488,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>43</v>
@@ -1510,13 +1514,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>43</v>
@@ -1536,13 +1540,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>43</v>
@@ -1562,13 +1566,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>43</v>
@@ -1588,13 +1592,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>43</v>
@@ -1614,13 +1618,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>43</v>
@@ -1640,13 +1644,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>43</v>
@@ -1666,13 +1670,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>43</v>
@@ -1692,13 +1696,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>43</v>
@@ -1718,13 +1722,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>43</v>
@@ -1744,13 +1748,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>43</v>
@@ -1770,13 +1774,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>43</v>
@@ -1796,13 +1800,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>43</v>
@@ -1822,13 +1826,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>43</v>
@@ -1848,13 +1852,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
@@ -1874,13 +1878,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>43</v>
@@ -1900,13 +1904,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>43</v>
@@ -1926,13 +1930,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>43</v>
@@ -1952,13 +1956,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>24</v>
@@ -1978,13 +1982,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>24</v>
@@ -2004,13 +2008,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>24</v>
@@ -2030,13 +2034,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>24</v>
@@ -2056,13 +2060,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>24</v>
@@ -2082,13 +2086,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
@@ -2108,13 +2112,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>24</v>
@@ -2134,13 +2138,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>24</v>
@@ -2160,13 +2164,13 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>24</v>
@@ -2186,13 +2190,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>24</v>
@@ -2212,13 +2216,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>24</v>
@@ -2238,13 +2242,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>24</v>
@@ -2264,16 +2268,16 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2290,16 +2294,16 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2316,16 +2320,16 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2342,16 +2346,16 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2368,19 +2372,19 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F65" s="1">
         <v>8000.0</v>
@@ -2394,10 +2398,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>37</v>
@@ -2420,16 +2424,16 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2445,14 +2449,14 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>45273.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>31</v>
@@ -2471,14 +2475,14 @@
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>45273.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>31</v>
@@ -2497,14 +2501,14 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>45274.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>31</v>
@@ -2523,20 +2527,20 @@
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>45274.0</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F71" s="1">
         <v>30000.0</v>
@@ -2549,20 +2553,20 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>45274.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F72" s="1">
         <v>50000.0</v>
@@ -2575,20 +2579,20 @@
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>45274.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F73" s="1">
         <v>50000.0</v>
@@ -2601,11 +2605,11 @@
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>45276.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>23</v>
@@ -2627,14 +2631,14 @@
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>45277.0</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>31</v>
@@ -2653,20 +2657,20 @@
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>45282.0</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F76" s="1">
         <v>50000.0</v>
@@ -2679,20 +2683,20 @@
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <v>45290.0</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F77" s="1">
         <v>2000.0</v>
